--- a/DDF/PNG Product/SalesOrder/SalesOrder.xlsx
+++ b/DDF/PNG Product/SalesOrder/SalesOrder.xlsx
@@ -271,8 +271,8 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,7 +385,7 @@
       </c>
       <c r="C3" s="2" t="n">
         <f aca="true">TODAY()</f>
-        <v>44424</v>
+        <v>44440</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -395,7 +395,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f aca="false">TEXT(C3+15,"DD-MMM-YYYY")</f>
-        <v>31-Aug-2021</v>
+        <v>16-Sep-2021</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -419,7 +419,7 @@
       </c>
       <c r="C4" s="2" t="n">
         <f aca="true">TODAY()</f>
-        <v>44424</v>
+        <v>44440</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
@@ -429,7 +429,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f aca="false">TEXT(C4+15,"DD-MMM-YYYY")</f>
-        <v>31-Aug-2021</v>
+        <v>16-Sep-2021</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -453,7 +453,7 @@
       </c>
       <c r="C5" s="2" t="n">
         <f aca="true">TODAY()</f>
-        <v>44424</v>
+        <v>44440</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
@@ -463,7 +463,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f aca="false">TEXT(C5+15,"DD-MMM-YYYY")</f>
-        <v>31-Aug-2021</v>
+        <v>16-Sep-2021</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
